--- a/Site/data/compare_random_ia.xlsx
+++ b/Site/data/compare_random_ia.xlsx
@@ -894,6 +894,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200"/>
+              <a:t>Nombre</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
+              <a:t> de coups moyens avant résolution en fonction du nombre de coups pour mélanger</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2789,15 +2819,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>348321</xdr:colOff>
+      <xdr:colOff>337738</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>176894</xdr:rowOff>
+      <xdr:rowOff>44602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>696108</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>30363</xdr:rowOff>
+      <xdr:colOff>685525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>83279</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3084,7 +3114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>

--- a/Site/data/compare_random_ia.xlsx
+++ b/Site/data/compare_random_ia.xlsx
@@ -2788,16 +2788,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>388553</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>97328</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711826</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>62692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>461578</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>87805</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22851</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53169</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2818,16 +2818,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>337738</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>44602</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>72193</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>27286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>685525</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>83279</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419980</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>65963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3112,10 +3112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H22"/>
+  <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3540,6 +3540,16 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
